--- a/Excel to json convertor/sample-format/dataElementsUpdate.xlsx
+++ b/Excel to json convertor/sample-format/dataElementsUpdate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mithilesh Thakur\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitHub_source_code\excel_to_Json_Converter_angularJS\sample-format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EAF63C-EC8A-4B86-960A-CDA26E8DD7F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFA87FD-17AB-4096-B961-92E2D048F475}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="1921">
   <si>
     <t>name</t>
   </si>
@@ -5810,6 +5810,18 @@
   </si>
   <si>
     <t>Insufficient ace water allyear round(Not improved)</t>
+  </si>
+  <si>
+    <t>aggregationType</t>
+  </si>
+  <si>
+    <t>LAST</t>
+  </si>
+  <si>
+    <t>zeroIsSignificant</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -5860,12 +5872,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6180,10 +6196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6B5FAB-DF4A-42DC-8643-A674828EC12D}">
-  <dimension ref="A1:E416"/>
+  <dimension ref="A1:G416"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6192,9 +6208,12 @@
     <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.08984375" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1907</v>
       </c>
@@ -6210,8 +6229,14 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -6227,8 +6252,14 @@
       <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -6244,8 +6275,14 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -6261,8 +6298,11 @@
       <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -6278,8 +6318,11 @@
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -6295,8 +6338,11 @@
       <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -6312,8 +6358,11 @@
       <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
@@ -6329,8 +6378,11 @@
       <c r="E8" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -6346,8 +6398,11 @@
       <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>44</v>
       </c>
@@ -6363,8 +6418,11 @@
       <c r="E10" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>49</v>
       </c>
@@ -6380,8 +6438,11 @@
       <c r="E11" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
@@ -6397,8 +6458,11 @@
       <c r="E12" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>59</v>
       </c>
@@ -6414,8 +6478,11 @@
       <c r="E13" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
@@ -6431,8 +6498,11 @@
       <c r="E14" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
@@ -6448,8 +6518,11 @@
       <c r="E15" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -6465,8 +6538,11 @@
       <c r="E16" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -6482,8 +6558,11 @@
       <c r="E17" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>84</v>
       </c>
@@ -6499,8 +6578,11 @@
       <c r="E18" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>89</v>
       </c>
@@ -6516,8 +6598,11 @@
       <c r="E19" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>94</v>
       </c>
@@ -6533,8 +6618,11 @@
       <c r="E20" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>99</v>
       </c>
@@ -6550,8 +6638,11 @@
       <c r="E21" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>104</v>
       </c>
@@ -6567,8 +6658,11 @@
       <c r="E22" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>109</v>
       </c>
@@ -6584,8 +6678,11 @@
       <c r="E23" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>114</v>
       </c>
@@ -6601,8 +6698,11 @@
       <c r="E24" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>119</v>
       </c>
@@ -6618,8 +6718,11 @@
       <c r="E25" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>124</v>
       </c>
@@ -6635,8 +6738,11 @@
       <c r="E26" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>128</v>
       </c>
@@ -6652,8 +6758,11 @@
       <c r="E27" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>133</v>
       </c>
@@ -6669,8 +6778,11 @@
       <c r="E28" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>138</v>
       </c>
@@ -6686,8 +6798,11 @@
       <c r="E29" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>143</v>
       </c>
@@ -6703,8 +6818,11 @@
       <c r="E30" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>148</v>
       </c>
@@ -6720,8 +6838,11 @@
       <c r="E31" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>153</v>
       </c>
@@ -6737,8 +6858,11 @@
       <c r="E32" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>158</v>
       </c>
@@ -6754,8 +6878,11 @@
       <c r="E33" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>163</v>
       </c>
@@ -6771,8 +6898,11 @@
       <c r="E34" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>168</v>
       </c>
@@ -6788,8 +6918,11 @@
       <c r="E35" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>173</v>
       </c>
@@ -6805,8 +6938,11 @@
       <c r="E36" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>178</v>
       </c>
@@ -6822,8 +6958,11 @@
       <c r="E37" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>183</v>
       </c>
@@ -6839,8 +6978,11 @@
       <c r="E38" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>188</v>
       </c>
@@ -6856,8 +6998,11 @@
       <c r="E39" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>193</v>
       </c>
@@ -6873,8 +7018,11 @@
       <c r="E40" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>198</v>
       </c>
@@ -6890,8 +7038,11 @@
       <c r="E41" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>203</v>
       </c>
@@ -6907,8 +7058,11 @@
       <c r="E42" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>208</v>
       </c>
@@ -6924,8 +7078,11 @@
       <c r="E43" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>213</v>
       </c>
@@ -6941,8 +7098,11 @@
       <c r="E44" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>218</v>
       </c>
@@ -6958,8 +7118,11 @@
       <c r="E45" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>223</v>
       </c>
@@ -6975,8 +7138,11 @@
       <c r="E46" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>228</v>
       </c>
@@ -6992,8 +7158,11 @@
       <c r="E47" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>233</v>
       </c>
@@ -7009,8 +7178,11 @@
       <c r="E48" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>237</v>
       </c>
@@ -7026,8 +7198,11 @@
       <c r="E49" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G49" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>242</v>
       </c>
@@ -7043,8 +7218,11 @@
       <c r="E50" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G50" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>247</v>
       </c>
@@ -7060,8 +7238,11 @@
       <c r="E51" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G51" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>252</v>
       </c>
@@ -7077,8 +7258,11 @@
       <c r="E52" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G52" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>257</v>
       </c>
@@ -7094,8 +7278,11 @@
       <c r="E53" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>262</v>
       </c>
@@ -7111,8 +7298,11 @@
       <c r="E54" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>267</v>
       </c>
@@ -7128,8 +7318,11 @@
       <c r="E55" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>272</v>
       </c>
@@ -7145,8 +7338,11 @@
       <c r="E56" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>277</v>
       </c>
@@ -7162,8 +7358,11 @@
       <c r="E57" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>282</v>
       </c>
@@ -7179,8 +7378,11 @@
       <c r="E58" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>287</v>
       </c>
@@ -7196,8 +7398,11 @@
       <c r="E59" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>292</v>
       </c>
@@ -7213,8 +7418,11 @@
       <c r="E60" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G60" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>297</v>
       </c>
@@ -7230,8 +7438,11 @@
       <c r="E61" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>302</v>
       </c>
@@ -7247,8 +7458,11 @@
       <c r="E62" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>307</v>
       </c>
@@ -7264,8 +7478,11 @@
       <c r="E63" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>312</v>
       </c>
@@ -7281,8 +7498,11 @@
       <c r="E64" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>317</v>
       </c>
@@ -7298,8 +7518,11 @@
       <c r="E65" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G65" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>322</v>
       </c>
@@ -7315,8 +7538,11 @@
       <c r="E66" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G66" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>327</v>
       </c>
@@ -7332,8 +7558,11 @@
       <c r="E67" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G67" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>332</v>
       </c>
@@ -7349,8 +7578,11 @@
       <c r="E68" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G68" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>337</v>
       </c>
@@ -7366,8 +7598,11 @@
       <c r="E69" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>342</v>
       </c>
@@ -7383,8 +7618,11 @@
       <c r="E70" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G70" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>347</v>
       </c>
@@ -7400,8 +7638,11 @@
       <c r="E71" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G71" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>352</v>
       </c>
@@ -7417,8 +7658,11 @@
       <c r="E72" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G72" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>357</v>
       </c>
@@ -7434,8 +7678,11 @@
       <c r="E73" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G73" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>362</v>
       </c>
@@ -7451,8 +7698,11 @@
       <c r="E74" s="3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G74" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>367</v>
       </c>
@@ -7468,8 +7718,11 @@
       <c r="E75" s="3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G75" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>372</v>
       </c>
@@ -7485,8 +7738,11 @@
       <c r="E76" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G76" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>377</v>
       </c>
@@ -7502,8 +7758,11 @@
       <c r="E77" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G77" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>382</v>
       </c>
@@ -7519,8 +7778,11 @@
       <c r="E78" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G78" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>387</v>
       </c>
@@ -7536,8 +7798,11 @@
       <c r="E79" s="3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G79" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>392</v>
       </c>
@@ -7553,8 +7818,11 @@
       <c r="E80" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G80" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>397</v>
       </c>
@@ -7570,8 +7838,11 @@
       <c r="E81" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G81" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>402</v>
       </c>
@@ -7587,8 +7858,11 @@
       <c r="E82" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G82" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>407</v>
       </c>
@@ -7604,8 +7878,11 @@
       <c r="E83" s="3" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G83" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>412</v>
       </c>
@@ -7621,8 +7898,11 @@
       <c r="E84" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G84" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>417</v>
       </c>
@@ -7638,8 +7918,11 @@
       <c r="E85" s="3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G85" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>422</v>
       </c>
@@ -7655,8 +7938,11 @@
       <c r="E86" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G86" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>427</v>
       </c>
@@ -7672,8 +7958,11 @@
       <c r="E87" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G87" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>432</v>
       </c>
@@ -7689,8 +7978,11 @@
       <c r="E88" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G88" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>437</v>
       </c>
@@ -7706,8 +7998,11 @@
       <c r="E89" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G89" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>442</v>
       </c>
@@ -7723,8 +8018,11 @@
       <c r="E90" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G90" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>447</v>
       </c>
@@ -7740,8 +8038,11 @@
       <c r="E91" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G91" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>452</v>
       </c>
@@ -7757,8 +8058,11 @@
       <c r="E92" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G92" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>457</v>
       </c>
@@ -7774,8 +8078,11 @@
       <c r="E93" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G93" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>462</v>
       </c>
@@ -7791,8 +8098,11 @@
       <c r="E94" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G94" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>467</v>
       </c>
@@ -7808,8 +8118,11 @@
       <c r="E95" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G95" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>472</v>
       </c>
@@ -7825,8 +8138,11 @@
       <c r="E96" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G96" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>477</v>
       </c>
@@ -7842,8 +8158,11 @@
       <c r="E97" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G97" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>482</v>
       </c>
@@ -7859,8 +8178,11 @@
       <c r="E98" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G98" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>487</v>
       </c>
@@ -7876,8 +8198,11 @@
       <c r="E99" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G99" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>492</v>
       </c>
@@ -7893,8 +8218,11 @@
       <c r="E100" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G100" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>497</v>
       </c>
@@ -7910,8 +8238,11 @@
       <c r="E101" s="3" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>502</v>
       </c>
@@ -7927,8 +8258,11 @@
       <c r="E102" s="3" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G102" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>507</v>
       </c>
@@ -7944,8 +8278,11 @@
       <c r="E103" s="3" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G103" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>512</v>
       </c>
@@ -7961,8 +8298,11 @@
       <c r="E104" s="3" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G104" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>517</v>
       </c>
@@ -7978,8 +8318,11 @@
       <c r="E105" s="3" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G105" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>522</v>
       </c>
@@ -7995,8 +8338,11 @@
       <c r="E106" s="3" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G106" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>527</v>
       </c>
@@ -8012,8 +8358,11 @@
       <c r="E107" s="3" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G107" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>532</v>
       </c>
@@ -8029,8 +8378,11 @@
       <c r="E108" s="3" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G108" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>537</v>
       </c>
@@ -8046,8 +8398,11 @@
       <c r="E109" s="3" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G109" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>542</v>
       </c>
@@ -8063,8 +8418,11 @@
       <c r="E110" s="3" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G110" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>547</v>
       </c>
@@ -8080,8 +8438,11 @@
       <c r="E111" s="3" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G111" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>552</v>
       </c>
@@ -8097,8 +8458,11 @@
       <c r="E112" s="3" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G112" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>557</v>
       </c>
@@ -8114,8 +8478,11 @@
       <c r="E113" s="3" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G113" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>562</v>
       </c>
@@ -8131,8 +8498,11 @@
       <c r="E114" s="3" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G114" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>567</v>
       </c>
@@ -8148,8 +8518,11 @@
       <c r="E115" s="3" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G115" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>572</v>
       </c>
@@ -8165,8 +8538,11 @@
       <c r="E116" s="3" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G116" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>577</v>
       </c>
@@ -8182,8 +8558,11 @@
       <c r="E117" s="3" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G117" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>582</v>
       </c>
@@ -8199,8 +8578,11 @@
       <c r="E118" s="3" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G118" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>587</v>
       </c>
@@ -8216,8 +8598,11 @@
       <c r="E119" s="3" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G119" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>592</v>
       </c>
@@ -8233,8 +8618,11 @@
       <c r="E120" s="3" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G120" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>597</v>
       </c>
@@ -8250,8 +8638,11 @@
       <c r="E121" s="3" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G121" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>602</v>
       </c>
@@ -8267,8 +8658,11 @@
       <c r="E122" s="3" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G122" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>607</v>
       </c>
@@ -8284,8 +8678,11 @@
       <c r="E123" s="3" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G123" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>612</v>
       </c>
@@ -8301,8 +8698,11 @@
       <c r="E124" s="3" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G124" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>617</v>
       </c>
@@ -8318,8 +8718,11 @@
       <c r="E125" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G125" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>622</v>
       </c>
@@ -8335,8 +8738,11 @@
       <c r="E126" s="3" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G126" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>627</v>
       </c>
@@ -8352,8 +8758,11 @@
       <c r="E127" s="3" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G127" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>632</v>
       </c>
@@ -8369,8 +8778,11 @@
       <c r="E128" s="3" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G128" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>637</v>
       </c>
@@ -8386,8 +8798,11 @@
       <c r="E129" s="3" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G129" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>642</v>
       </c>
@@ -8403,8 +8818,11 @@
       <c r="E130" s="3" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G130" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>647</v>
       </c>
@@ -8420,8 +8838,11 @@
       <c r="E131" s="3" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G131" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>652</v>
       </c>
@@ -8437,8 +8858,11 @@
       <c r="E132" s="3" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G132" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>657</v>
       </c>
@@ -8454,8 +8878,11 @@
       <c r="E133" s="3" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G133" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>662</v>
       </c>
@@ -8471,8 +8898,11 @@
       <c r="E134" s="3" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G134" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>667</v>
       </c>
@@ -8488,8 +8918,11 @@
       <c r="E135" s="3" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G135" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>672</v>
       </c>
@@ -8505,8 +8938,11 @@
       <c r="E136" s="3" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G136" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>677</v>
       </c>
@@ -8522,8 +8958,11 @@
       <c r="E137" s="3" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G137" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>682</v>
       </c>
@@ -8539,8 +8978,11 @@
       <c r="E138" s="3" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G138" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>687</v>
       </c>
@@ -8556,8 +8998,11 @@
       <c r="E139" s="3" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G139" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>692</v>
       </c>
@@ -8573,8 +9018,11 @@
       <c r="E140" s="3" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G140" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>697</v>
       </c>
@@ -8590,8 +9038,11 @@
       <c r="E141" s="3" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G141" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>702</v>
       </c>
@@ -8607,8 +9058,11 @@
       <c r="E142" s="3" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G142" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>707</v>
       </c>
@@ -8624,8 +9078,11 @@
       <c r="E143" s="3" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G143" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>711</v>
       </c>
@@ -8641,8 +9098,11 @@
       <c r="E144" s="3" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G144" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>715</v>
       </c>
@@ -8658,8 +9118,11 @@
       <c r="E145" s="3" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G145" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>719</v>
       </c>
@@ -8675,8 +9138,11 @@
       <c r="E146" s="3" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G146" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>723</v>
       </c>
@@ -8692,8 +9158,11 @@
       <c r="E147" s="3" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G147" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>727</v>
       </c>
@@ -8709,8 +9178,11 @@
       <c r="E148" s="3" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G148" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>731</v>
       </c>
@@ -8726,8 +9198,11 @@
       <c r="E149" s="3" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G149" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>735</v>
       </c>
@@ -8743,8 +9218,11 @@
       <c r="E150" s="3" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G150" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>739</v>
       </c>
@@ -8760,8 +9238,11 @@
       <c r="E151" s="3" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G151" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>743</v>
       </c>
@@ -8777,8 +9258,11 @@
       <c r="E152" s="3" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G152" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>747</v>
       </c>
@@ -8794,8 +9278,11 @@
       <c r="E153" s="3" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G153" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>751</v>
       </c>
@@ -8811,8 +9298,11 @@
       <c r="E154" s="3" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G154" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>755</v>
       </c>
@@ -8828,8 +9318,11 @@
       <c r="E155" s="3" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G155" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>760</v>
       </c>
@@ -8845,8 +9338,11 @@
       <c r="E156" s="3" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G156" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>764</v>
       </c>
@@ -8862,8 +9358,11 @@
       <c r="E157" s="3" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G157" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>769</v>
       </c>
@@ -8879,8 +9378,11 @@
       <c r="E158" s="3" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G158" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>774</v>
       </c>
@@ -8896,8 +9398,11 @@
       <c r="E159" s="3" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G159" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>779</v>
       </c>
@@ -8913,8 +9418,11 @@
       <c r="E160" s="3" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G160" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>784</v>
       </c>
@@ -8930,8 +9438,11 @@
       <c r="E161" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G161" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>789</v>
       </c>
@@ -8947,8 +9458,11 @@
       <c r="E162" s="3" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G162" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>794</v>
       </c>
@@ -8964,8 +9478,11 @@
       <c r="E163" s="3" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G163" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>798</v>
       </c>
@@ -8981,8 +9498,11 @@
       <c r="E164" s="3" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G164" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>803</v>
       </c>
@@ -8998,8 +9518,11 @@
       <c r="E165" s="3" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G165" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>808</v>
       </c>
@@ -9015,8 +9538,11 @@
       <c r="E166" s="3" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G166" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>813</v>
       </c>
@@ -9032,8 +9558,11 @@
       <c r="E167" s="3" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G167" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>818</v>
       </c>
@@ -9049,8 +9578,11 @@
       <c r="E168" s="3" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G168" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>823</v>
       </c>
@@ -9066,8 +9598,11 @@
       <c r="E169" s="3" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G169" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>827</v>
       </c>
@@ -9083,8 +9618,11 @@
       <c r="E170" s="3" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G170" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>831</v>
       </c>
@@ -9100,8 +9638,11 @@
       <c r="E171" s="3" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G171" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>836</v>
       </c>
@@ -9117,8 +9658,11 @@
       <c r="E172" s="3" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G172" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>841</v>
       </c>
@@ -9134,8 +9678,11 @@
       <c r="E173" s="3" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G173" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>846</v>
       </c>
@@ -9151,8 +9698,11 @@
       <c r="E174" s="3" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G174" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>851</v>
       </c>
@@ -9168,8 +9718,11 @@
       <c r="E175" s="3" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G175" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>855</v>
       </c>
@@ -9185,8 +9738,11 @@
       <c r="E176" s="3" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G176" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>859</v>
       </c>
@@ -9202,8 +9758,11 @@
       <c r="E177" s="3" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G177" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>864</v>
       </c>
@@ -9219,8 +9778,11 @@
       <c r="E178" s="3" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G178" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>869</v>
       </c>
@@ -9236,8 +9798,11 @@
       <c r="E179" s="3" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G179" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>874</v>
       </c>
@@ -9253,8 +9818,11 @@
       <c r="E180" s="3" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G180" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>879</v>
       </c>
@@ -9270,8 +9838,11 @@
       <c r="E181" s="3" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G181" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>884</v>
       </c>
@@ -9287,8 +9858,11 @@
       <c r="E182" s="3" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G182" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>889</v>
       </c>
@@ -9304,8 +9878,11 @@
       <c r="E183" s="3" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G183" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>894</v>
       </c>
@@ -9321,8 +9898,11 @@
       <c r="E184" s="3" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G184" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>899</v>
       </c>
@@ -9338,8 +9918,11 @@
       <c r="E185" s="3" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G185" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>904</v>
       </c>
@@ -9355,8 +9938,11 @@
       <c r="E186" s="3" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G186" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>909</v>
       </c>
@@ -9372,8 +9958,11 @@
       <c r="E187" s="3" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G187" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>914</v>
       </c>
@@ -9389,8 +9978,11 @@
       <c r="E188" s="3" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G188" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>919</v>
       </c>
@@ -9406,8 +9998,11 @@
       <c r="E189" s="3" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G189" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>924</v>
       </c>
@@ -9423,8 +10018,11 @@
       <c r="E190" s="3" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G190" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>929</v>
       </c>
@@ -9440,8 +10038,11 @@
       <c r="E191" s="3" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G191" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>934</v>
       </c>
@@ -9457,8 +10058,11 @@
       <c r="E192" s="3" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G192" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>939</v>
       </c>
@@ -9474,8 +10078,11 @@
       <c r="E193" s="3" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G193" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>943</v>
       </c>
@@ -9491,8 +10098,11 @@
       <c r="E194" s="3" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G194" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>947</v>
       </c>
@@ -9508,8 +10118,11 @@
       <c r="E195" s="3" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G195" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>951</v>
       </c>
@@ -9525,8 +10138,11 @@
       <c r="E196" s="3" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G196" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>955</v>
       </c>
@@ -9542,8 +10158,11 @@
       <c r="E197" s="3" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G197" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>959</v>
       </c>
@@ -9559,8 +10178,11 @@
       <c r="E198" s="3" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G198" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>964</v>
       </c>
@@ -9576,8 +10198,11 @@
       <c r="E199" s="3" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G199" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>969</v>
       </c>
@@ -9593,8 +10218,11 @@
       <c r="E200" s="3" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G200" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>974</v>
       </c>
@@ -9610,8 +10238,11 @@
       <c r="E201" s="3" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G201" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>979</v>
       </c>
@@ -9627,8 +10258,11 @@
       <c r="E202" s="3" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G202" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>984</v>
       </c>
@@ -9644,8 +10278,11 @@
       <c r="E203" s="3" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G203" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>989</v>
       </c>
@@ -9661,8 +10298,11 @@
       <c r="E204" s="3" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G204" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>994</v>
       </c>
@@ -9678,8 +10318,11 @@
       <c r="E205" s="3" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G205" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>999</v>
       </c>
@@ -9695,8 +10338,11 @@
       <c r="E206" s="3" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G206" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>1004</v>
       </c>
@@ -9712,8 +10358,11 @@
       <c r="E207" s="3" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G207" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>1009</v>
       </c>
@@ -9729,8 +10378,11 @@
       <c r="E208" s="3" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G208" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>1014</v>
       </c>
@@ -9746,8 +10398,11 @@
       <c r="E209" s="3" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G209" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>1019</v>
       </c>
@@ -9763,8 +10418,11 @@
       <c r="E210" s="3" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G210" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>1024</v>
       </c>
@@ -9780,8 +10438,11 @@
       <c r="E211" s="3" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G211" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>1029</v>
       </c>
@@ -9797,8 +10458,11 @@
       <c r="E212" s="3" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G212" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>1034</v>
       </c>
@@ -9814,8 +10478,11 @@
       <c r="E213" s="3" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G213" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>1039</v>
       </c>
@@ -9831,8 +10498,11 @@
       <c r="E214" s="3" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G214" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>1043</v>
       </c>
@@ -9848,8 +10518,11 @@
       <c r="E215" s="3" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G215" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>1047</v>
       </c>
@@ -9865,8 +10538,11 @@
       <c r="E216" s="3" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G216" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>1051</v>
       </c>
@@ -9882,8 +10558,11 @@
       <c r="E217" s="3" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G217" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>1055</v>
       </c>
@@ -9899,8 +10578,11 @@
       <c r="E218" s="3" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G218" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>1060</v>
       </c>
@@ -9916,8 +10598,11 @@
       <c r="E219" s="3" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G219" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>1065</v>
       </c>
@@ -9933,8 +10618,11 @@
       <c r="E220" s="3" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G220" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>1070</v>
       </c>
@@ -9950,8 +10638,11 @@
       <c r="E221" s="3" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G221" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>1075</v>
       </c>
@@ -9967,8 +10658,11 @@
       <c r="E222" s="3" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G222" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>1080</v>
       </c>
@@ -9984,8 +10678,11 @@
       <c r="E223" s="3" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G223" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>1085</v>
       </c>
@@ -10001,8 +10698,11 @@
       <c r="E224" s="3" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G224" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>1090</v>
       </c>
@@ -10018,8 +10718,11 @@
       <c r="E225" s="3" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G225" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>1095</v>
       </c>
@@ -10035,8 +10738,11 @@
       <c r="E226" s="3" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G226" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>1100</v>
       </c>
@@ -10052,8 +10758,11 @@
       <c r="E227" s="3" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G227" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>1105</v>
       </c>
@@ -10069,8 +10778,11 @@
       <c r="E228" s="3" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G228" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>1110</v>
       </c>
@@ -10086,8 +10798,11 @@
       <c r="E229" s="3" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G229" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>1115</v>
       </c>
@@ -10103,8 +10818,11 @@
       <c r="E230" s="3" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G230" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>1120</v>
       </c>
@@ -10120,8 +10838,11 @@
       <c r="E231" s="3" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G231" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>1125</v>
       </c>
@@ -10137,8 +10858,11 @@
       <c r="E232" s="3" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G232" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>1130</v>
       </c>
@@ -10154,8 +10878,11 @@
       <c r="E233" s="3" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G233" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>1135</v>
       </c>
@@ -10171,8 +10898,11 @@
       <c r="E234" s="3" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G234" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>1140</v>
       </c>
@@ -10188,8 +10918,11 @@
       <c r="E235" s="3" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G235" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>1145</v>
       </c>
@@ -10205,8 +10938,11 @@
       <c r="E236" s="3" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G236" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>1150</v>
       </c>
@@ -10222,8 +10958,11 @@
       <c r="E237" s="3" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G237" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>1155</v>
       </c>
@@ -10239,8 +10978,11 @@
       <c r="E238" s="3" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G238" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>1160</v>
       </c>
@@ -10256,8 +10998,11 @@
       <c r="E239" s="3" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G239" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>1165</v>
       </c>
@@ -10273,8 +11018,11 @@
       <c r="E240" s="3" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G240" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>1170</v>
       </c>
@@ -10290,8 +11038,11 @@
       <c r="E241" s="3" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G241" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>1175</v>
       </c>
@@ -10307,8 +11058,11 @@
       <c r="E242" s="3" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G242" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>1179</v>
       </c>
@@ -10324,8 +11078,11 @@
       <c r="E243" s="3" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G243" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>1184</v>
       </c>
@@ -10341,8 +11098,11 @@
       <c r="E244" s="3" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G244" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>1189</v>
       </c>
@@ -10358,8 +11118,11 @@
       <c r="E245" s="3" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G245" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>1194</v>
       </c>
@@ -10375,8 +11138,11 @@
       <c r="E246" s="3" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G246" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>1199</v>
       </c>
@@ -10392,8 +11158,11 @@
       <c r="E247" s="3" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G247" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>1204</v>
       </c>
@@ -10409,8 +11178,11 @@
       <c r="E248" s="3" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G248" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>1209</v>
       </c>
@@ -10426,8 +11198,11 @@
       <c r="E249" s="3" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G249" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>1214</v>
       </c>
@@ -10443,8 +11218,11 @@
       <c r="E250" s="3" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G250" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>1219</v>
       </c>
@@ -10460,8 +11238,11 @@
       <c r="E251" s="3" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G251" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>1224</v>
       </c>
@@ -10477,8 +11258,11 @@
       <c r="E252" s="3" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G252" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>1229</v>
       </c>
@@ -10494,8 +11278,11 @@
       <c r="E253" s="3" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G253" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>1234</v>
       </c>
@@ -10511,8 +11298,11 @@
       <c r="E254" s="3" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G254" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>1239</v>
       </c>
@@ -10528,8 +11318,11 @@
       <c r="E255" s="3" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G255" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>1243</v>
       </c>
@@ -10545,8 +11338,11 @@
       <c r="E256" s="3" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G256" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>1248</v>
       </c>
@@ -10562,8 +11358,11 @@
       <c r="E257" s="3" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G257" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>1253</v>
       </c>
@@ -10579,8 +11378,11 @@
       <c r="E258" s="3" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G258" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>1258</v>
       </c>
@@ -10596,8 +11398,11 @@
       <c r="E259" s="3" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G259" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>1263</v>
       </c>
@@ -10613,8 +11418,11 @@
       <c r="E260" s="3" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G260" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>1268</v>
       </c>
@@ -10630,8 +11438,11 @@
       <c r="E261" s="3" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G261" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>1273</v>
       </c>
@@ -10647,8 +11458,11 @@
       <c r="E262" s="3" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G262" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>1278</v>
       </c>
@@ -10664,8 +11478,11 @@
       <c r="E263" s="3" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G263" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>1283</v>
       </c>
@@ -10681,8 +11498,11 @@
       <c r="E264" s="3" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G264" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>1288</v>
       </c>
@@ -10698,8 +11518,11 @@
       <c r="E265" s="3" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G265" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>1293</v>
       </c>
@@ -10715,8 +11538,11 @@
       <c r="E266" s="3" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G266" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>1298</v>
       </c>
@@ -10732,8 +11558,11 @@
       <c r="E267" s="3" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G267" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>1303</v>
       </c>
@@ -10749,8 +11578,11 @@
       <c r="E268" s="3" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G268" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>1308</v>
       </c>
@@ -10766,8 +11598,11 @@
       <c r="E269" s="3" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G269" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>1313</v>
       </c>
@@ -10783,8 +11618,11 @@
       <c r="E270" s="3" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G270" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>1318</v>
       </c>
@@ -10800,8 +11638,11 @@
       <c r="E271" s="3" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G271" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>1323</v>
       </c>
@@ -10817,8 +11658,11 @@
       <c r="E272" s="3" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G272" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>1328</v>
       </c>
@@ -10834,8 +11678,11 @@
       <c r="E273" s="3" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G273" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>1333</v>
       </c>
@@ -10851,8 +11698,11 @@
       <c r="E274" s="3" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G274" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>1338</v>
       </c>
@@ -10868,8 +11718,11 @@
       <c r="E275" s="3" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G275" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>1343</v>
       </c>
@@ -10885,8 +11738,11 @@
       <c r="E276" s="3" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G276" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>1348</v>
       </c>
@@ -10902,8 +11758,11 @@
       <c r="E277" s="3" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G277" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>1353</v>
       </c>
@@ -10919,8 +11778,11 @@
       <c r="E278" s="3" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G278" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>1358</v>
       </c>
@@ -10936,8 +11798,11 @@
       <c r="E279" s="3" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G279" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>1363</v>
       </c>
@@ -10953,8 +11818,11 @@
       <c r="E280" s="3" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G280" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>1368</v>
       </c>
@@ -10970,8 +11838,11 @@
       <c r="E281" s="3" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G281" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>1373</v>
       </c>
@@ -10987,8 +11858,11 @@
       <c r="E282" s="3" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G282" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>1378</v>
       </c>
@@ -11004,8 +11878,11 @@
       <c r="E283" s="3" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G283" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>1383</v>
       </c>
@@ -11021,8 +11898,11 @@
       <c r="E284" s="3" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G284" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>1388</v>
       </c>
@@ -11038,8 +11918,11 @@
       <c r="E285" s="3" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G285" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>1393</v>
       </c>
@@ -11055,8 +11938,11 @@
       <c r="E286" s="3" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G286" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>1398</v>
       </c>
@@ -11072,8 +11958,11 @@
       <c r="E287" s="3" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G287" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>1403</v>
       </c>
@@ -11089,8 +11978,11 @@
       <c r="E288" s="3" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G288" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>1408</v>
       </c>
@@ -11106,8 +11998,11 @@
       <c r="E289" s="3" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G289" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>1413</v>
       </c>
@@ -11123,8 +12018,11 @@
       <c r="E290" s="3" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G290" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>1418</v>
       </c>
@@ -11140,8 +12038,11 @@
       <c r="E291" s="3" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G291" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>1423</v>
       </c>
@@ -11157,8 +12058,11 @@
       <c r="E292" s="3" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G292" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>1428</v>
       </c>
@@ -11174,8 +12078,11 @@
       <c r="E293" s="3" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G293" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>1433</v>
       </c>
@@ -11191,8 +12098,11 @@
       <c r="E294" s="3" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G294" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>1438</v>
       </c>
@@ -11208,8 +12118,11 @@
       <c r="E295" s="3" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G295" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>1443</v>
       </c>
@@ -11225,8 +12138,11 @@
       <c r="E296" s="3" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G296" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>1448</v>
       </c>
@@ -11242,8 +12158,11 @@
       <c r="E297" s="3" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G297" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>1453</v>
       </c>
@@ -11259,8 +12178,11 @@
       <c r="E298" s="3" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G298" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>1458</v>
       </c>
@@ -11276,8 +12198,11 @@
       <c r="E299" s="3" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G299" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>1463</v>
       </c>
@@ -11293,8 +12218,11 @@
       <c r="E300" s="3" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G300" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>1468</v>
       </c>
@@ -11310,8 +12238,11 @@
       <c r="E301" s="3" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G301" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>1473</v>
       </c>
@@ -11327,8 +12258,11 @@
       <c r="E302" s="3" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G302" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>1478</v>
       </c>
@@ -11344,8 +12278,11 @@
       <c r="E303" s="3" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G303" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>1483</v>
       </c>
@@ -11361,8 +12298,11 @@
       <c r="E304" s="3" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G304" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>1488</v>
       </c>
@@ -11378,8 +12318,11 @@
       <c r="E305" s="3" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G305" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>1493</v>
       </c>
@@ -11395,8 +12338,11 @@
       <c r="E306" s="3" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G306" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>1498</v>
       </c>
@@ -11412,8 +12358,11 @@
       <c r="E307" s="3" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G307" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>1503</v>
       </c>
@@ -11429,8 +12378,11 @@
       <c r="E308" s="3" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G308" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>1508</v>
       </c>
@@ -11446,8 +12398,11 @@
       <c r="E309" s="3" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G309" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>1513</v>
       </c>
@@ -11463,8 +12418,11 @@
       <c r="E310" s="3" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G310" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>1518</v>
       </c>
@@ -11480,8 +12438,11 @@
       <c r="E311" s="3" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G311" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>1523</v>
       </c>
@@ -11497,8 +12458,11 @@
       <c r="E312" s="3" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G312" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>1528</v>
       </c>
@@ -11514,8 +12478,11 @@
       <c r="E313" s="3" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G313" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>1533</v>
       </c>
@@ -11531,8 +12498,11 @@
       <c r="E314" s="3" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G314" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>1538</v>
       </c>
@@ -11548,8 +12518,11 @@
       <c r="E315" s="3" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G315" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>1543</v>
       </c>
@@ -11565,8 +12538,11 @@
       <c r="E316" s="3" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G316" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>1548</v>
       </c>
@@ -11582,8 +12558,11 @@
       <c r="E317" s="3" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G317" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>1553</v>
       </c>
@@ -11599,8 +12578,11 @@
       <c r="E318" s="3" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G318" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>1558</v>
       </c>
@@ -11616,8 +12598,11 @@
       <c r="E319" s="3" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G319" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>1563</v>
       </c>
@@ -11633,8 +12618,11 @@
       <c r="E320" s="3" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G320" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>1568</v>
       </c>
@@ -11650,8 +12638,11 @@
       <c r="E321" s="3" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G321" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>1573</v>
       </c>
@@ -11667,8 +12658,11 @@
       <c r="E322" s="3" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G322" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>1577</v>
       </c>
@@ -11684,8 +12678,11 @@
       <c r="E323" s="3" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G323" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>1581</v>
       </c>
@@ -11701,8 +12698,11 @@
       <c r="E324" s="3" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G324" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>1586</v>
       </c>
@@ -11718,8 +12718,11 @@
       <c r="E325" s="3" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G325" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>1591</v>
       </c>
@@ -11735,8 +12738,11 @@
       <c r="E326" s="3" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G326" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>1595</v>
       </c>
@@ -11752,8 +12758,11 @@
       <c r="E327" s="3" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G327" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>1600</v>
       </c>
@@ -11769,8 +12778,11 @@
       <c r="E328" s="3" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G328" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>1605</v>
       </c>
@@ -11786,8 +12798,11 @@
       <c r="E329" s="3" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G329" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>1610</v>
       </c>
@@ -11803,8 +12818,11 @@
       <c r="E330" s="3" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G330" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>1615</v>
       </c>
@@ -11820,8 +12838,11 @@
       <c r="E331" s="3" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G331" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>1620</v>
       </c>
@@ -11837,8 +12858,11 @@
       <c r="E332" s="3" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G332" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>1625</v>
       </c>
@@ -11854,8 +12878,11 @@
       <c r="E333" s="3" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G333" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>1630</v>
       </c>
@@ -11871,8 +12898,11 @@
       <c r="E334" s="3" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G334" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>1635</v>
       </c>
@@ -11888,8 +12918,11 @@
       <c r="E335" s="3" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G335" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>1639</v>
       </c>
@@ -11905,8 +12938,11 @@
       <c r="E336" s="3" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G336" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>1643</v>
       </c>
@@ -11922,8 +12958,11 @@
       <c r="E337" s="3" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G337" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>1647</v>
       </c>
@@ -11939,8 +12978,11 @@
       <c r="E338" s="3" t="s">
         <v>1650</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G338" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>1651</v>
       </c>
@@ -11956,8 +12998,11 @@
       <c r="E339" s="3" t="s">
         <v>1655</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G339" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>1656</v>
       </c>
@@ -11973,8 +13018,11 @@
       <c r="E340" s="3" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G340" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>1661</v>
       </c>
@@ -11990,8 +13038,11 @@
       <c r="E341" s="3" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G341" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>1666</v>
       </c>
@@ -12007,8 +13058,11 @@
       <c r="E342" s="3" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G342" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>1671</v>
       </c>
@@ -12024,8 +13078,11 @@
       <c r="E343" s="3" t="s">
         <v>1675</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G343" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>1676</v>
       </c>
@@ -12041,8 +13098,11 @@
       <c r="E344" s="3" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G344" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>1681</v>
       </c>
@@ -12058,8 +13118,11 @@
       <c r="E345" s="3" t="s">
         <v>1685</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G345" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>1686</v>
       </c>
@@ -12075,8 +13138,11 @@
       <c r="E346" s="3" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G346" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>1691</v>
       </c>
@@ -12092,8 +13158,11 @@
       <c r="E347" s="3" t="s">
         <v>1695</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G347" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>1696</v>
       </c>
@@ -12109,8 +13178,11 @@
       <c r="E348" s="3" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G348" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>1701</v>
       </c>
@@ -12126,8 +13198,11 @@
       <c r="E349" s="3" t="s">
         <v>1705</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G349" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>1706</v>
       </c>
@@ -12143,8 +13218,11 @@
       <c r="E350" s="3" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G350" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>1711</v>
       </c>
@@ -12160,8 +13238,11 @@
       <c r="E351" s="3" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G351" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>1716</v>
       </c>
@@ -12177,8 +13258,11 @@
       <c r="E352" s="3" t="s">
         <v>1720</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G352" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>1721</v>
       </c>
@@ -12194,8 +13278,11 @@
       <c r="E353" s="3" t="s">
         <v>1725</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G353" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>1726</v>
       </c>
@@ -12211,8 +13298,11 @@
       <c r="E354" s="3" t="s">
         <v>1730</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G354" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>1731</v>
       </c>
@@ -12228,8 +13318,11 @@
       <c r="E355" s="3" t="s">
         <v>1735</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G355" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>1736</v>
       </c>
@@ -12245,8 +13338,11 @@
       <c r="E356" s="3" t="s">
         <v>1740</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G356" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>1741</v>
       </c>
@@ -12262,8 +13358,11 @@
       <c r="E357" s="3" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G357" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>1746</v>
       </c>
@@ -12279,8 +13378,11 @@
       <c r="E358" s="3" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G358" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>1750</v>
       </c>
@@ -12296,8 +13398,11 @@
       <c r="E359" s="3" t="s">
         <v>1751</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G359" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>1754</v>
       </c>
@@ -12313,8 +13418,11 @@
       <c r="E360" s="3" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G360" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>1757</v>
       </c>
@@ -12330,8 +13438,11 @@
       <c r="E361" s="3" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G361" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>1760</v>
       </c>
@@ -12347,8 +13458,11 @@
       <c r="E362" s="3" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G362" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>1762</v>
       </c>
@@ -12364,8 +13478,11 @@
       <c r="E363" s="3" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G363" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>1764</v>
       </c>
@@ -12381,8 +13498,11 @@
       <c r="E364" s="3" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G364" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>1767</v>
       </c>
@@ -12398,8 +13518,11 @@
       <c r="E365" s="3" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G365" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>1770</v>
       </c>
@@ -12415,8 +13538,11 @@
       <c r="E366" s="3" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G366" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>1773</v>
       </c>
@@ -12432,8 +13558,11 @@
       <c r="E367" s="3" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G367" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>1776</v>
       </c>
@@ -12449,8 +13578,11 @@
       <c r="E368" s="3" t="s">
         <v>1777</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G368" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>1778</v>
       </c>
@@ -12466,8 +13598,11 @@
       <c r="E369" s="3" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G369" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>1781</v>
       </c>
@@ -12483,8 +13618,11 @@
       <c r="E370" s="3" t="s">
         <v>1782</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G370" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>1783</v>
       </c>
@@ -12500,8 +13638,11 @@
       <c r="E371" s="3" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G371" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>1785</v>
       </c>
@@ -12517,8 +13658,11 @@
       <c r="E372" s="3" t="s">
         <v>1786</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G372" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>1788</v>
       </c>
@@ -12534,8 +13678,11 @@
       <c r="E373" s="3" t="s">
         <v>1789</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G373" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>1790</v>
       </c>
@@ -12551,8 +13698,11 @@
       <c r="E374" s="3" t="s">
         <v>1791</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G374" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>1793</v>
       </c>
@@ -12568,8 +13718,11 @@
       <c r="E375" s="3" t="s">
         <v>1794</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G375" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>1796</v>
       </c>
@@ -12585,8 +13738,11 @@
       <c r="E376" s="3" t="s">
         <v>1797</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G376" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>1799</v>
       </c>
@@ -12602,8 +13758,11 @@
       <c r="E377" s="3" t="s">
         <v>1800</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G377" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>1802</v>
       </c>
@@ -12619,8 +13778,11 @@
       <c r="E378" s="3" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G378" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>1805</v>
       </c>
@@ -12636,8 +13798,11 @@
       <c r="E379" s="3" t="s">
         <v>1806</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G379" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>1808</v>
       </c>
@@ -12653,8 +13818,11 @@
       <c r="E380" s="3" t="s">
         <v>1809</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G380" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>1811</v>
       </c>
@@ -12670,8 +13838,11 @@
       <c r="E381" s="3" t="s">
         <v>1812</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G381" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>1813</v>
       </c>
@@ -12687,8 +13858,11 @@
       <c r="E382" s="3" t="s">
         <v>1814</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G382" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>1815</v>
       </c>
@@ -12704,8 +13878,11 @@
       <c r="E383" s="3" t="s">
         <v>1816</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G383" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>1818</v>
       </c>
@@ -12721,8 +13898,11 @@
       <c r="E384" s="3" t="s">
         <v>1819</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G384" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>1821</v>
       </c>
@@ -12738,8 +13918,11 @@
       <c r="E385" s="3" t="s">
         <v>1822</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G385" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>1824</v>
       </c>
@@ -12755,8 +13938,11 @@
       <c r="E386" s="3" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G386" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>1826</v>
       </c>
@@ -12772,8 +13958,11 @@
       <c r="E387" s="3" t="s">
         <v>1827</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G387" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>1829</v>
       </c>
@@ -12789,8 +13978,11 @@
       <c r="E388" s="3" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G388" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>1832</v>
       </c>
@@ -12806,8 +13998,11 @@
       <c r="E389" s="3" t="s">
         <v>1833</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G389" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>1835</v>
       </c>
@@ -12823,8 +14018,11 @@
       <c r="E390" s="3" t="s">
         <v>1836</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G390" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>1837</v>
       </c>
@@ -12840,8 +14038,11 @@
       <c r="E391" s="3" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G391" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>1840</v>
       </c>
@@ -12857,8 +14058,11 @@
       <c r="E392" s="3" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G392" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>1842</v>
       </c>
@@ -12874,8 +14078,11 @@
       <c r="E393" s="3" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G393" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>1844</v>
       </c>
@@ -12891,8 +14098,11 @@
       <c r="E394" s="3" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G394" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>1846</v>
       </c>
@@ -12908,8 +14118,11 @@
       <c r="E395" s="3" t="s">
         <v>1847</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G395" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>1849</v>
       </c>
@@ -12925,8 +14138,11 @@
       <c r="E396" s="3" t="s">
         <v>1850</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G396" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>1852</v>
       </c>
@@ -12942,8 +14158,11 @@
       <c r="E397" s="3" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G397" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>1855</v>
       </c>
@@ -12959,8 +14178,11 @@
       <c r="E398" s="3" t="s">
         <v>1856</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G398" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>1858</v>
       </c>
@@ -12976,8 +14198,11 @@
       <c r="E399" s="3" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G399" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>1860</v>
       </c>
@@ -12993,8 +14218,11 @@
       <c r="E400" s="3" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G400" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>1863</v>
       </c>
@@ -13010,8 +14238,11 @@
       <c r="E401" s="3" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G401" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>1866</v>
       </c>
@@ -13027,8 +14258,11 @@
       <c r="E402" s="3" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G402" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>1869</v>
       </c>
@@ -13044,8 +14278,11 @@
       <c r="E403" s="3" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G403" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>1872</v>
       </c>
@@ -13061,8 +14298,11 @@
       <c r="E404" s="3" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G404" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>1874</v>
       </c>
@@ -13078,8 +14318,11 @@
       <c r="E405" s="3" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G405" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>1877</v>
       </c>
@@ -13095,8 +14338,11 @@
       <c r="E406" s="3" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G406" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>1880</v>
       </c>
@@ -13112,8 +14358,11 @@
       <c r="E407" s="3" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G407" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>1882</v>
       </c>
@@ -13129,8 +14378,11 @@
       <c r="E408" s="3" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G408" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>1884</v>
       </c>
@@ -13146,8 +14398,11 @@
       <c r="E409" s="3" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G409" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>1887</v>
       </c>
@@ -13163,8 +14418,11 @@
       <c r="E410" s="3" t="s">
         <v>1888</v>
       </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G410" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>1889</v>
       </c>
@@ -13180,8 +14438,11 @@
       <c r="E411" s="3" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G411" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>1892</v>
       </c>
@@ -13197,8 +14458,11 @@
       <c r="E412" s="3" t="s">
         <v>1893</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G412" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>1895</v>
       </c>
@@ -13214,8 +14478,11 @@
       <c r="E413" s="3" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G413" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>1898</v>
       </c>
@@ -13231,8 +14498,11 @@
       <c r="E414" s="3" t="s">
         <v>1899</v>
       </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G414" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>1901</v>
       </c>
@@ -13248,8 +14518,11 @@
       <c r="E415" s="3" t="s">
         <v>1902</v>
       </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G415" s="6" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>1904</v>
       </c>
@@ -13264,6 +14537,9 @@
       </c>
       <c r="E416" s="3" t="s">
         <v>1905</v>
+      </c>
+      <c r="G416" s="6" t="s">
+        <v>1920</v>
       </c>
     </row>
   </sheetData>
@@ -13273,12 +14549,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064994C001712374395B345EB88ED991F" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c1a62579524e26006c6d5335831b55c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f9770305-a86c-4dd4-a8e3-5283c3e6bf99" xmlns:ns3="3f48127a-ff27-4c8f-88c3-e54b29f41588" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="658091719f3253a39288b5ed2add5a7b" ns2:_="" ns3:_="">
     <xsd:import namespace="f9770305-a86c-4dd4-a8e3-5283c3e6bf99"/>
@@ -13475,16 +14760,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A4371F-7DC5-4CF4-A869-E47776CCD6EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACBAC26C-ABD4-4796-8551-545E34A88729}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -13493,7 +14777,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E76993AC-6818-4630-B1D6-F654BE5E03B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13510,12 +14794,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18A4371F-7DC5-4CF4-A869-E47776CCD6EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>